--- a/medicine/Enfance/Hélène_Georges/Hélène_Georges.xlsx
+++ b/medicine/Enfance/Hélène_Georges/Hélène_Georges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_Georges</t>
+          <t>Hélène_Georges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hélène Georges, née le 12 juillet 1978 à Remiremont, est une illustratrice et auteure de bande dessinée française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_Georges</t>
+          <t>Hélène_Georges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Formée à l'École supérieure des arts décoratifs de Strasbourg, Hélène Georges devient coloriste, notamment pour Lisa Mandel. C'est cette dernière qui l'incite à se tourner vers la bande dessinée pour le fanzine marseillais Hercule et la toison d'or[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Formée à l'École supérieure des arts décoratifs de Strasbourg, Hélène Georges devient coloriste, notamment pour Lisa Mandel. C'est cette dernière qui l'incite à se tourner vers la bande dessinée pour le fanzine marseillais Hercule et la toison d'or.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_Georges</t>
+          <t>Hélène_Georges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +558,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bande dessinée
-Les rêveries d'Hélène Georges, Éd. Michel Lagarde, 2006  (ISBN 2916421068).
-La vraie vie d'Hélène Georges[2], Éd. Michel Lagarde, 2008  (ISBN 2916421165).
-Vertige[3],[4], Casterman, 2012.
-L'amour du maillot  - Une saison en ligue 2[5], scénario de Frédéric Rasera, Casterman, collection « Sociorama », 2020.
-Livre jeunesse
-Histoires des Trumai, un peuple d'Amazonie, textes de Claire Merleau-Ponty et Aurore Monod-Becquelin, Actes Sud Junior, 2005.
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les rêveries d'Hélène Georges, Éd. Michel Lagarde, 2006  (ISBN 2916421068).
+La vraie vie d'Hélène Georges, Éd. Michel Lagarde, 2008  (ISBN 2916421165).
+Vertige Casterman, 2012.
+L'amour du maillot  - Une saison en ligue 2, scénario de Frédéric Rasera, Casterman, collection « Sociorama », 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hélène_Georges</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9l%C3%A8ne_Georges</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Livre jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Histoires des Trumai, un peuple d'Amazonie, textes de Claire Merleau-Ponty et Aurore Monod-Becquelin, Actes Sud Junior, 2005.
 Les éperons de la liberté, texte de Philippe Poirier et Pam Munoz Ryan, Actes Sud Junior, 2006.
 Sur les ailes du condor, avec Milton Hatoum et Michel Riaudel, Éd. Le Seuil, 2006  (ISBN 2020848708).
 Chez les Indiens d'Amérique : Petit Castor Amérique du Nord 1804-1806, avec Annick Foucrier et Florent Silloray, Éd. Gallimard, coll. « Le journal d'un enfant », 2006  (ISBN 2070577724).
@@ -558,9 +611,43 @@
 Noël au placard, texte de Gilles Abier, Actes Sud Junior, 2011.
 Archéo animaux, texte de Lamys Hachem, Actes Sud Junior, 2013.
 Elle court la rivière…, texte de Fleur Daugey, Actes Sud Junior, 2015.
-La Bible racontée et expliquée, texte de Jean-Michel Billioud[6], La Martinière, 2016 (paru également en traduction polonaise).
-Coloriste
-Brune platine, scénario de Lisa Mandel, dessin de Marion Mousse, Casterman, 2013.</t>
+La Bible racontée et expliquée, texte de Jean-Michel Billioud, La Martinière, 2016 (paru également en traduction polonaise).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hélène_Georges</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9l%C3%A8ne_Georges</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Coloriste</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Brune platine, scénario de Lisa Mandel, dessin de Marion Mousse, Casterman, 2013.</t>
         </is>
       </c>
     </row>
